--- a/WpfClient/Resources/RequisitionInvoiceTemplate.xlsx
+++ b/WpfClient/Resources/RequisitionInvoiceTemplate.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thron\source\repos\RequestManagementSystem\WpfClient\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF70A560-7D89-4BB9-A31C-7C51C78943C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{474A8473-8415-433F-967B-4EA210AAD36C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист_1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="54">
   <si>
     <t>Приложение № 7</t>
   </si>
@@ -92,13 +92,7 @@
 услуг)</t>
   </si>
   <si>
-    <t>Через кого________________________________________________________________________________________</t>
-  </si>
-  <si>
     <t>Затребовал___________________________________</t>
-  </si>
-  <si>
-    <t>Полухин И.М.</t>
   </si>
   <si>
     <t>Разрешил</t>
@@ -201,6 +195,9 @@
   </si>
   <si>
     <t>Получил</t>
+  </si>
+  <si>
+    <t>Через кого__________________________________</t>
   </si>
 </sst>
 </file>
@@ -739,7 +736,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -918,6 +915,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
@@ -990,6 +990,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1004,18 +1010,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1039,15 +1033,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>172256</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
+      <xdr:colOff>277031</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1061,6 +1055,10 @@
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5564375" y="2738841"/>
+          <a:ext cx="828029" cy="132866"/>
+        </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
@@ -1094,15 +1092,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>159884</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>418419</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>159884</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1117,8 +1115,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="0" cy="0"/>
+          <a:off x="5404757" y="2765652"/>
+          <a:ext cx="1130073" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1136,15 +1134,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>453486</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>148525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>504825</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>149494</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:rowOff>120434</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1158,6 +1156,10 @@
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6568536" y="2748850"/>
+          <a:ext cx="934258" cy="133834"/>
+        </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
@@ -1191,13 +1193,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
+      <xdr:colOff>440572</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>504825</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>136580</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -1214,8 +1216,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="0" cy="0"/>
+          <a:off x="6555622" y="2762250"/>
+          <a:ext cx="934258" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1234,14 +1236,14 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>154983</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>219075</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>107842</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1255,6 +1257,10 @@
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7523136" y="2750949"/>
+          <a:ext cx="1655897" cy="114300"/>
+        </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
@@ -2183,14 +2189,14 @@
   </sheetPr>
   <dimension ref="A1:S24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T30" sqref="T30"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="V17" sqref="V17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="11.45" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="1.1640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5" style="1" customWidth="1"/>
     <col min="3" max="4" width="4.5" style="1" customWidth="1"/>
     <col min="5" max="5" width="27" style="1" customWidth="1"/>
     <col min="6" max="6" width="12.83203125" style="1" customWidth="1"/>
@@ -2220,47 +2226,47 @@
       </c>
     </row>
     <row r="3" spans="2:19" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="M3" s="60" t="s">
+      <c r="M3" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="N3" s="60"/>
-      <c r="O3" s="60"/>
-      <c r="P3" s="60"/>
-      <c r="Q3" s="60"/>
-      <c r="R3" s="60"/>
-      <c r="S3" s="60"/>
+      <c r="N3" s="61"/>
+      <c r="O3" s="61"/>
+      <c r="P3" s="61"/>
+      <c r="Q3" s="61"/>
+      <c r="R3" s="61"/>
+      <c r="S3" s="61"/>
     </row>
     <row r="4" spans="2:19" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="61"/>
-      <c r="C4" s="61"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="61"/>
-      <c r="G4" s="61"/>
-      <c r="H4" s="61"/>
-      <c r="I4" s="61"/>
-      <c r="J4" s="61"/>
-      <c r="K4" s="61"/>
-      <c r="L4" s="61"/>
-      <c r="M4" s="61"/>
-      <c r="N4" s="61"/>
-      <c r="O4" s="61"/>
+      <c r="B4" s="62"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="62"/>
+      <c r="H4" s="62"/>
+      <c r="I4" s="62"/>
+      <c r="J4" s="62"/>
+      <c r="K4" s="62"/>
+      <c r="L4" s="62"/>
+      <c r="M4" s="62"/>
+      <c r="N4" s="62"/>
+      <c r="O4" s="62"/>
     </row>
     <row r="5" spans="2:19" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="62"/>
-      <c r="C5" s="62"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="62"/>
-      <c r="F5" s="62"/>
-      <c r="G5" s="62"/>
-      <c r="H5" s="62"/>
-      <c r="I5" s="62"/>
-      <c r="J5" s="62"/>
-      <c r="K5" s="62"/>
-      <c r="L5" s="62"/>
-      <c r="M5" s="62"/>
-      <c r="N5" s="62"/>
-      <c r="O5" s="62"/>
+      <c r="B5" s="63"/>
+      <c r="C5" s="63"/>
+      <c r="D5" s="63"/>
+      <c r="E5" s="63"/>
+      <c r="F5" s="63"/>
+      <c r="G5" s="63"/>
+      <c r="H5" s="63"/>
+      <c r="I5" s="63"/>
+      <c r="J5" s="63"/>
+      <c r="K5" s="63"/>
+      <c r="L5" s="63"/>
+      <c r="M5" s="63"/>
+      <c r="N5" s="63"/>
+      <c r="O5" s="63"/>
       <c r="Q5" s="3"/>
       <c r="R5" s="3"/>
       <c r="S5" s="4" t="s">
@@ -2268,49 +2274,49 @@
       </c>
     </row>
     <row r="6" spans="2:19" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="62"/>
-      <c r="C6" s="62"/>
-      <c r="D6" s="62"/>
-      <c r="E6" s="62"/>
-      <c r="F6" s="62"/>
-      <c r="G6" s="62"/>
-      <c r="H6" s="62"/>
-      <c r="I6" s="62"/>
-      <c r="J6" s="62"/>
-      <c r="K6" s="62"/>
-      <c r="L6" s="62"/>
-      <c r="M6" s="62"/>
-      <c r="N6" s="62"/>
-      <c r="O6" s="62"/>
-      <c r="P6" s="64" t="s">
+      <c r="B6" s="63"/>
+      <c r="C6" s="63"/>
+      <c r="D6" s="63"/>
+      <c r="E6" s="63"/>
+      <c r="F6" s="63"/>
+      <c r="G6" s="63"/>
+      <c r="H6" s="63"/>
+      <c r="I6" s="63"/>
+      <c r="J6" s="63"/>
+      <c r="K6" s="63"/>
+      <c r="L6" s="63"/>
+      <c r="M6" s="63"/>
+      <c r="N6" s="63"/>
+      <c r="O6" s="63"/>
+      <c r="P6" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="Q6" s="65"/>
-      <c r="R6" s="65"/>
+      <c r="Q6" s="66"/>
+      <c r="R6" s="66"/>
       <c r="S6" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="2:19" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="63"/>
-      <c r="C7" s="63"/>
-      <c r="D7" s="63"/>
-      <c r="E7" s="63"/>
-      <c r="F7" s="63"/>
-      <c r="G7" s="63"/>
-      <c r="H7" s="63"/>
-      <c r="I7" s="63"/>
-      <c r="J7" s="63"/>
-      <c r="K7" s="63"/>
-      <c r="L7" s="63"/>
-      <c r="M7" s="63"/>
-      <c r="N7" s="63"/>
-      <c r="O7" s="63"/>
-      <c r="P7" s="66" t="s">
+      <c r="B7" s="64"/>
+      <c r="C7" s="64"/>
+      <c r="D7" s="64"/>
+      <c r="E7" s="64"/>
+      <c r="F7" s="64"/>
+      <c r="G7" s="64"/>
+      <c r="H7" s="64"/>
+      <c r="I7" s="64"/>
+      <c r="J7" s="64"/>
+      <c r="K7" s="64"/>
+      <c r="L7" s="64"/>
+      <c r="M7" s="64"/>
+      <c r="N7" s="64"/>
+      <c r="O7" s="64"/>
+      <c r="P7" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="Q7" s="65"/>
-      <c r="R7" s="65"/>
+      <c r="Q7" s="66"/>
+      <c r="R7" s="66"/>
       <c r="S7" s="6" t="s">
         <v>7</v>
       </c>
@@ -2320,16 +2326,16 @@
       <c r="B9" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="67" t="s">
+      <c r="C9" s="68" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="67"/>
-      <c r="E9" s="68" t="s">
+      <c r="D9" s="68"/>
+      <c r="E9" s="69" t="s">
         <v>10</v>
       </c>
-      <c r="F9" s="68"/>
-      <c r="G9" s="68"/>
-      <c r="H9" s="68"/>
+      <c r="F9" s="69"/>
+      <c r="G9" s="69"/>
+      <c r="H9" s="69"/>
       <c r="I9" s="9" t="s">
         <v>11</v>
       </c>
@@ -2356,11 +2362,11 @@
       <c r="E10" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="69" t="s">
+      <c r="F10" s="70" t="s">
         <v>16</v>
       </c>
-      <c r="G10" s="69"/>
-      <c r="H10" s="69"/>
+      <c r="G10" s="70"/>
+      <c r="H10" s="70"/>
       <c r="I10" s="17" t="s">
         <v>15</v>
       </c>
@@ -2375,10 +2381,10 @@
       <c r="P10" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="Q10" s="70" t="s">
+      <c r="Q10" s="71" t="s">
         <v>18</v>
       </c>
-      <c r="R10" s="70"/>
+      <c r="R10" s="71"/>
       <c r="S10" s="20" t="s">
         <v>19</v>
       </c>
@@ -2387,17 +2393,17 @@
       <c r="B11" s="21"/>
       <c r="C11" s="22"/>
       <c r="D11" s="23"/>
-      <c r="E11" s="71"/>
-      <c r="F11" s="71"/>
-      <c r="G11" s="71"/>
-      <c r="H11" s="71"/>
-      <c r="I11" s="72"/>
-      <c r="J11" s="73"/>
-      <c r="K11" s="74"/>
-      <c r="L11" s="75"/>
-      <c r="M11" s="76"/>
-      <c r="N11" s="76"/>
-      <c r="O11" s="77"/>
+      <c r="E11" s="72"/>
+      <c r="F11" s="72"/>
+      <c r="G11" s="72"/>
+      <c r="H11" s="72"/>
+      <c r="I11" s="73"/>
+      <c r="J11" s="74"/>
+      <c r="K11" s="75"/>
+      <c r="L11" s="76"/>
+      <c r="M11" s="77"/>
+      <c r="N11" s="77"/>
+      <c r="O11" s="78"/>
       <c r="P11" s="25"/>
       <c r="Q11" s="24"/>
       <c r="R11" s="23"/>
@@ -2406,27 +2412,26 @@
     <row r="12" spans="2:19" ht="11.1" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="13" spans="2:19" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="26" t="s">
-        <v>20</v>
+        <v>53</v>
       </c>
       <c r="F13" s="27"/>
     </row>
     <row r="14" spans="2:19" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="I14" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="F14" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="I14" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="J14" s="78"/>
-      <c r="K14" s="79"/>
-      <c r="L14" s="80"/>
-      <c r="M14" s="80"/>
-      <c r="N14" s="80"/>
-      <c r="O14" s="80"/>
-      <c r="P14" s="28"/>
+      <c r="J14" s="79"/>
+      <c r="K14" s="80"/>
+      <c r="L14" s="81"/>
+      <c r="M14" s="81"/>
+      <c r="N14" s="81"/>
+      <c r="O14" s="81"/>
+      <c r="P14" s="81"/>
+      <c r="Q14" s="81"/>
+      <c r="R14" s="81"/>
     </row>
     <row r="15" spans="2:19" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J15" s="29"/>
@@ -2443,137 +2448,137 @@
       </c>
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
-      <c r="E16" s="81" t="s">
-        <v>24</v>
-      </c>
-      <c r="F16" s="81"/>
-      <c r="G16" s="81"/>
-      <c r="H16" s="81"/>
+      <c r="E16" s="82" t="s">
+        <v>22</v>
+      </c>
+      <c r="F16" s="82"/>
+      <c r="G16" s="82"/>
+      <c r="H16" s="82"/>
       <c r="I16" s="11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J16" s="10"/>
       <c r="K16" s="10"/>
       <c r="L16" s="30" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="M16" s="10"/>
       <c r="N16" s="10"/>
       <c r="O16" s="10"/>
       <c r="P16" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q16" s="83" t="s">
+        <v>26</v>
+      </c>
+      <c r="R16" s="83"/>
+      <c r="S16" s="32" t="s">
         <v>27</v>
-      </c>
-      <c r="Q16" s="82" t="s">
-        <v>28</v>
-      </c>
-      <c r="R16" s="82"/>
-      <c r="S16" s="32" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="17" spans="2:19" ht="47.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="70" t="s">
+      <c r="C17" s="71" t="s">
         <v>18</v>
       </c>
-      <c r="D17" s="70"/>
+      <c r="D17" s="71"/>
       <c r="E17" s="34" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F17" s="33"/>
       <c r="G17" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="H17" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="I17" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="H17" s="19" t="s">
+      <c r="J17" s="71" t="s">
         <v>32</v>
       </c>
-      <c r="I17" s="15" t="s">
+      <c r="K17" s="71"/>
+      <c r="L17" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="J17" s="70" t="s">
+      <c r="M17" s="71" t="s">
         <v>34</v>
       </c>
-      <c r="K17" s="70"/>
-      <c r="L17" s="15" t="s">
+      <c r="N17" s="71"/>
+      <c r="O17" s="71"/>
+      <c r="P17" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="M17" s="70" t="s">
+      <c r="Q17" s="84" t="s">
         <v>36</v>
       </c>
-      <c r="N17" s="70"/>
-      <c r="O17" s="70"/>
-      <c r="P17" s="36" t="s">
+      <c r="R17" s="84"/>
+      <c r="S17" s="37" t="s">
         <v>37</v>
-      </c>
-      <c r="Q17" s="83" t="s">
-        <v>38</v>
-      </c>
-      <c r="R17" s="83"/>
-      <c r="S17" s="37" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="18" spans="2:19" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" s="87" t="s">
+        <v>39</v>
+      </c>
+      <c r="D18" s="87"/>
+      <c r="E18" s="38" t="s">
         <v>40</v>
-      </c>
-      <c r="C18" s="84" t="s">
-        <v>41</v>
-      </c>
-      <c r="D18" s="84"/>
-      <c r="E18" s="38" t="s">
-        <v>42</v>
       </c>
       <c r="F18" s="40"/>
       <c r="G18" s="39" t="s">
+        <v>41</v>
+      </c>
+      <c r="H18" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="I18" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="H18" s="39" t="s">
+      <c r="J18" s="87" t="s">
         <v>44</v>
       </c>
-      <c r="I18" s="38" t="s">
+      <c r="K18" s="87"/>
+      <c r="L18" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="J18" s="84" t="s">
+      <c r="M18" s="87" t="s">
         <v>46</v>
       </c>
-      <c r="K18" s="84"/>
-      <c r="L18" s="38" t="s">
+      <c r="N18" s="87"/>
+      <c r="O18" s="87"/>
+      <c r="P18" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="M18" s="84" t="s">
+      <c r="Q18" s="88" t="s">
         <v>48</v>
       </c>
-      <c r="N18" s="84"/>
-      <c r="O18" s="84"/>
-      <c r="P18" s="38" t="s">
+      <c r="R18" s="88"/>
+      <c r="S18" s="41" t="s">
         <v>49</v>
-      </c>
-      <c r="Q18" s="85" t="s">
-        <v>50</v>
-      </c>
-      <c r="R18" s="85"/>
-      <c r="S18" s="41" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="19" spans="2:19" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="42"/>
       <c r="C19" s="43"/>
       <c r="D19" s="44"/>
-      <c r="E19" s="86"/>
-      <c r="F19" s="87"/>
+      <c r="E19" s="89"/>
+      <c r="F19" s="90"/>
       <c r="G19" s="46"/>
       <c r="H19" s="47"/>
       <c r="I19" s="48"/>
-      <c r="J19" s="88"/>
-      <c r="K19" s="88"/>
+      <c r="J19" s="91"/>
+      <c r="K19" s="91"/>
       <c r="L19" s="49"/>
-      <c r="M19" s="89"/>
-      <c r="N19" s="89"/>
-      <c r="O19" s="89"/>
+      <c r="M19" s="85"/>
+      <c r="N19" s="85"/>
+      <c r="O19" s="85"/>
       <c r="P19" s="50"/>
       <c r="Q19" s="51"/>
       <c r="R19" s="52"/>
@@ -2581,7 +2586,7 @@
     </row>
     <row r="20" spans="2:19" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="54" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C20" s="43"/>
       <c r="D20" s="44"/>
@@ -2593,9 +2598,9 @@
       <c r="J20" s="58"/>
       <c r="K20" s="52"/>
       <c r="L20" s="49"/>
-      <c r="M20" s="89"/>
-      <c r="N20" s="89"/>
-      <c r="O20" s="89"/>
+      <c r="M20" s="85"/>
+      <c r="N20" s="85"/>
+      <c r="O20" s="85"/>
       <c r="P20" s="50"/>
       <c r="Q20" s="51"/>
       <c r="R20" s="52"/>
@@ -2624,27 +2629,27 @@
     <row r="22" spans="2:19" ht="11.1" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="23" spans="2:19" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="28" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C23" s="28"/>
       <c r="D23" s="28"/>
       <c r="E23" s="28"/>
       <c r="F23" s="28"/>
-      <c r="G23" s="80"/>
-      <c r="H23" s="80"/>
-      <c r="I23" s="92" t="s">
-        <v>54</v>
-      </c>
-      <c r="J23" s="90"/>
-      <c r="K23" s="90"/>
-      <c r="L23" s="90"/>
+      <c r="G23" s="81"/>
+      <c r="H23" s="81"/>
+      <c r="I23" s="60" t="s">
+        <v>52</v>
+      </c>
+      <c r="J23" s="86"/>
+      <c r="K23" s="86"/>
+      <c r="L23" s="86"/>
       <c r="M23" s="28"/>
       <c r="N23" s="28"/>
       <c r="O23" s="28"/>
       <c r="P23" s="28"/>
-      <c r="Q23" s="91"/>
-      <c r="R23" s="91"/>
-      <c r="S23" s="91"/>
+      <c r="Q23" s="86"/>
+      <c r="R23" s="86"/>
+      <c r="S23" s="86"/>
     </row>
     <row r="24" spans="2:19" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="29"/>
@@ -2666,7 +2671,7 @@
       <c r="S24" s="29"/>
     </row>
   </sheetData>
-  <mergeCells count="29">
+  <mergeCells count="30">
     <mergeCell ref="M20:O20"/>
     <mergeCell ref="J23:L23"/>
     <mergeCell ref="Q23:S23"/>
@@ -2685,6 +2690,7 @@
     <mergeCell ref="J17:K17"/>
     <mergeCell ref="M17:O17"/>
     <mergeCell ref="Q17:R17"/>
+    <mergeCell ref="P14:R14"/>
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="E9:H9"/>
     <mergeCell ref="F10:H10"/>
